--- a/resources/UK datasets metadata.xlsx
+++ b/resources/UK datasets metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LukeStrange\Code\jrf-insight\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3349b17e015d8faf/Documents/Projects/jrf-insight/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC06A39-87A1-4A71-A6A4-671A68325887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1633848-5136-4086-8C51-B29C8E6DED2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43B52122-E617-438D-A796-F05F246B4164}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43B52122-E617-438D-A796-F05F246B4164}"/>
   </bookViews>
   <sheets>
     <sheet name="UK Metadata" sheetId="1" r:id="rId1"/>
@@ -1123,22 +1123,22 @@
       <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="9.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="9" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="36.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1746,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1798,7 +1798,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
@@ -1850,7 +1850,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1878,7 +1878,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +1928,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>101</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>101</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>14</v>
       </c>
@@ -2162,7 +2162,7 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
-    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>122</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
-    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>122</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
-    <row r="45" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>122</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
-    <row r="46" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>7</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>14</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>14</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>14</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>14</v>
       </c>
@@ -2660,7 +2660,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
-    <row r="59" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>14</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
-    <row r="60" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>165</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
-    <row r="62" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>165</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>172</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
-    <row r="64" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>172</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>177</v>
       </c>
@@ -2846,7 +2846,7 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>177</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>177</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>177</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>7</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>7</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="48" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>203</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>203</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>203</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>203</v>
       </c>
